--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A84B75A-9CC2-4456-84EF-F325DC2B647F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2B40D-B9F9-442D-A566-BDB0C8F5A111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
@@ -20,27 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>0-59</t>
-  </si>
-  <si>
-    <t>60-69</t>
-  </si>
-  <si>
-    <t>70-79</t>
-  </si>
-  <si>
-    <t>80-89</t>
-  </si>
-  <si>
-    <t>90-99</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>0-17</t>
+  </si>
+  <si>
+    <t>18-49</t>
+  </si>
+  <si>
+    <t>50-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>75-84</t>
+  </si>
+  <si>
+    <t>85+</t>
+  </si>
+  <si>
+    <t>Age Group</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>ICU Admissions</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>CFR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -874,45 +895,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3">
+        <v>1032</v>
+      </c>
+      <c r="C3">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>548</v>
+      </c>
+      <c r="C4">
+        <v>127</v>
+      </c>
+      <c r="D4">
+        <v>48</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5">
+        <v>336</v>
+      </c>
+      <c r="C5">
+        <v>117</v>
+      </c>
+      <c r="D5">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>280</v>
+      </c>
+      <c r="C6">
+        <v>98</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6">
+        <v>21.1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>295</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+      <c r="D7">
         <v>12</v>
       </c>
-      <c r="C2">
-        <v>32</v>
-      </c>
-      <c r="D2">
-        <v>34</v>
-      </c>
-      <c r="E2">
-        <v>31</v>
+      <c r="E7">
+        <v>87</v>
+      </c>
+      <c r="F7">
+        <v>29.5</v>
       </c>
     </row>
   </sheetData>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A2B40D-B9F9-442D-A566-BDB0C8F5A111}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE7E49-1D8B-4135-83E0-FAD9EA9993EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
+    <sheet name="ethnicities" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>0-17</t>
   </si>
@@ -56,6 +57,33 @@
   </si>
   <si>
     <t>CFR</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Latinx</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other </t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>ICU</t>
   </si>
 </sst>
 </file>
@@ -898,7 +926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1052,4 +1080,163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1329</v>
+      </c>
+      <c r="C2">
+        <v>267</v>
+      </c>
+      <c r="D2">
+        <v>95</v>
+      </c>
+      <c r="E2">
+        <v>150</v>
+      </c>
+      <c r="F2">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>926</v>
+      </c>
+      <c r="C3">
+        <v>193</v>
+      </c>
+      <c r="D3">
+        <v>79</v>
+      </c>
+      <c r="E3">
+        <v>38</v>
+      </c>
+      <c r="F3">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>291</v>
+      </c>
+      <c r="C4">
+        <v>53</v>
+      </c>
+      <c r="D4">
+        <v>19</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>117</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>2.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ACE7E49-1D8B-4135-83E0-FAD9EA9993EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C332D-2EA9-4C8F-B2D2-AD8D2AAB6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>0-17</t>
   </si>
@@ -59,24 +59,15 @@
     <t>CFR</t>
   </si>
   <si>
-    <t>Race</t>
-  </si>
-  <si>
     <t>White</t>
   </si>
   <si>
-    <t>African American</t>
-  </si>
-  <si>
     <t>Latinx</t>
   </si>
   <si>
     <t>Asian</t>
   </si>
   <si>
-    <t xml:space="preserve">Other </t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -84,6 +75,12 @@
   </si>
   <si>
     <t>ICU</t>
+  </si>
+  <si>
+    <t>African America</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1084,156 +1081,117 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>13</v>
       </c>
       <c r="B2">
         <v>1329</v>
       </c>
       <c r="C2">
+        <v>926</v>
+      </c>
+      <c r="D2">
+        <v>291</v>
+      </c>
+      <c r="E2">
+        <v>58</v>
+      </c>
+      <c r="F2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
         <v>267</v>
-      </c>
-      <c r="D2">
-        <v>95</v>
-      </c>
-      <c r="E2">
-        <v>150</v>
-      </c>
-      <c r="F2">
-        <v>11.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>926</v>
       </c>
       <c r="C3">
         <v>193</v>
       </c>
       <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>95</v>
+      </c>
+      <c r="C4">
         <v>79</v>
-      </c>
-      <c r="E3">
-        <v>38</v>
-      </c>
-      <c r="F3">
-        <v>4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>291</v>
-      </c>
-      <c r="C4">
-        <v>53</v>
       </c>
       <c r="D4">
         <v>19</v>
       </c>
       <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>150</v>
+      </c>
+      <c r="C5">
+        <v>38</v>
+      </c>
+      <c r="D5">
         <v>14</v>
-      </c>
-      <c r="F4">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>58</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>92</v>
-      </c>
-      <c r="C6">
-        <v>17</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>117</v>
-      </c>
-      <c r="C7">
         <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>2.6</v>
       </c>
     </row>
   </sheetData>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89C332D-2EA9-4C8F-B2D2-AD8D2AAB6271}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFA284-C6D7-4ED1-A8C5-21FA7A8EBA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>0-17</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1095,6 +1098,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
       <c r="B1" t="s">
         <v>12</v>
       </c>
@@ -1131,6 +1137,9 @@
         <v>58</v>
       </c>
       <c r="F2">
+        <v>92</v>
+      </c>
+      <c r="G2">
         <v>117</v>
       </c>
     </row>
@@ -1151,6 +1160,9 @@
         <v>6</v>
       </c>
       <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
         <v>3</v>
       </c>
     </row>
@@ -1171,6 +1183,9 @@
         <v>4</v>
       </c>
       <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
         <v>1</v>
       </c>
     </row>
@@ -1191,6 +1206,9 @@
         <v>4</v>
       </c>
       <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
       </c>
     </row>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBFA284-C6D7-4ED1-A8C5-21FA7A8EBA13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386FB14-7888-4A27-8C60-57DB2B7B8E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,6 +62,9 @@
     <t>White</t>
   </si>
   <si>
+    <t>African American</t>
+  </si>
+  <si>
     <t>Latinx</t>
   </si>
   <si>
@@ -75,9 +78,6 @@
   </si>
   <si>
     <t>ICU</t>
-  </si>
-  <si>
-    <t>African America</t>
   </si>
   <si>
     <t>Other</t>
@@ -1087,7 +1087,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,19 +1105,19 @@
         <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
         <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1145,7 +1145,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <v>267</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>95</v>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F386FB14-7888-4A27-8C60-57DB2B7B8E3E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A97CAC-9132-4363-973D-DA414D7F0068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
     <sheet name="ethnicities" sheetId="2" r:id="rId2"/>
+    <sheet name="prop" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>0-17</t>
   </si>
@@ -1086,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1215,4 +1226,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>47.244934233913973</v>
+      </c>
+      <c r="C2">
+        <v>32.91859225026662</v>
+      </c>
+      <c r="D2">
+        <v>10.344827586206897</v>
+      </c>
+      <c r="E2">
+        <v>2.0618556701030926</v>
+      </c>
+      <c r="F2">
+        <v>3.2705296836118025</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>49.536178107606673</v>
+      </c>
+      <c r="C3">
+        <v>35.807050092764378</v>
+      </c>
+      <c r="D3">
+        <v>9.833024118738404</v>
+      </c>
+      <c r="E3">
+        <v>1.1131725417439702</v>
+      </c>
+      <c r="F3">
+        <v>3.1539888682745829</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>47.029702970297024</v>
+      </c>
+      <c r="C4">
+        <v>39.10891089108911</v>
+      </c>
+      <c r="D4">
+        <v>9.4059405940594054</v>
+      </c>
+      <c r="E4">
+        <v>1.9801980198019802</v>
+      </c>
+      <c r="F4">
+        <v>1.9801980198019802</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>71.090047393364927</v>
+      </c>
+      <c r="C5">
+        <v>18.009478672985782</v>
+      </c>
+      <c r="D5">
+        <v>6.6350710900473935</v>
+      </c>
+      <c r="E5">
+        <v>1.8957345971563981</v>
+      </c>
+      <c r="F5">
+        <v>0.94786729857819907</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A97CAC-9132-4363-973D-DA414D7F0068}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A6A34-2FD2-499C-93D2-EC957A69DB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
   <si>
     <t>0-17</t>
   </si>
@@ -1098,7 +1098,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,19 +1230,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1253,16 +1254,19 @@
         <v>13</v>
       </c>
       <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1281,8 +1285,11 @@
       <c r="F2">
         <v>3.2705296836118025</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <v>4.1592605758976182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1301,8 +1308,11 @@
       <c r="F3">
         <v>3.1539888682745829</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <v>0.55658627087198509</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1321,8 +1331,11 @@
       <c r="F4">
         <v>1.9801980198019802</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <v>0.49504950495049505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1340,6 +1353,9 @@
       </c>
       <c r="F5">
         <v>0.94786729857819907</v>
+      </c>
+      <c r="G5">
+        <v>1.4218009478672986</v>
       </c>
     </row>
   </sheetData>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{776A6A34-2FD2-499C-93D2-EC957A69DB9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAD47D-8DB2-4730-9F6E-A22C5F01E967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14820" yWindow="720" windowWidth="7740" windowHeight="11748" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>0-17</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>In-Hospital Deaths</t>
   </si>
 </sst>
 </file>
@@ -973,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>107</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -993,19 +996,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1032</v>
+        <v>1480</v>
       </c>
       <c r="C3">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1013,19 +1016,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>548</v>
+        <v>725</v>
       </c>
       <c r="C4">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="D4">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="E4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -1033,19 +1036,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>336</v>
+        <v>412</v>
       </c>
       <c r="C5">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1053,19 +1056,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>280</v>
+        <v>360</v>
       </c>
       <c r="C6">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E6">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="F6">
-        <v>21.1</v>
+        <v>20.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1073,19 +1076,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>295</v>
+        <v>412</v>
       </c>
       <c r="C7">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="F7">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
     </row>
   </sheetData>
@@ -1095,15 +1098,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1136,22 +1139,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1329</v>
+        <v>1639</v>
       </c>
       <c r="C2">
-        <v>926</v>
+        <v>1195</v>
       </c>
       <c r="D2">
-        <v>291</v>
+        <v>339</v>
       </c>
       <c r="E2">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F2">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G2">
-        <v>117</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,22 +1162,22 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>267</v>
+        <v>343</v>
       </c>
       <c r="C3">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1182,13 +1185,13 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1205,13 +1208,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>150</v>
+        <v>183</v>
       </c>
       <c r="C5">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -1220,7 +1223,30 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1232,8 +1258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61FAD47D-8DB2-4730-9F6E-A22C5F01E967}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13638772-7001-4FFC-9955-9F2D77803054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="720" windowWidth="7740" windowHeight="11748" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10752" yWindow="612" windowWidth="11808" windowHeight="11748" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>0-17</t>
   </si>
@@ -1100,8 +1100,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,15 +1256,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1297,22 +1297,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>47.244934233913973</v>
+        <v>46.882151029748279</v>
       </c>
       <c r="C2">
-        <v>32.91859225026662</v>
+        <v>34.181922196796336</v>
       </c>
       <c r="D2">
-        <v>10.344827586206897</v>
+        <v>9.6967963386727689</v>
       </c>
       <c r="E2">
-        <v>2.0618556701030926</v>
+        <v>2.1453089244851258</v>
       </c>
       <c r="F2">
-        <v>3.2705296836118025</v>
+        <v>3.0606407322654459</v>
       </c>
       <c r="G2">
-        <v>4.1592605758976182</v>
+        <v>4.0331807780320368</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1320,22 +1320,22 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>49.536178107606673</v>
+        <v>51.734539969834096</v>
       </c>
       <c r="C3">
-        <v>35.807050092764378</v>
+        <v>34.389140271493211</v>
       </c>
       <c r="D3">
-        <v>9.833024118738404</v>
+        <v>9.0497737556561084</v>
       </c>
       <c r="E3">
-        <v>1.1131725417439702</v>
+        <v>1.206636500754148</v>
       </c>
       <c r="F3">
-        <v>3.1539888682745829</v>
+        <v>3.0165912518853695</v>
       </c>
       <c r="G3">
-        <v>0.55658627087198509</v>
+        <v>0.60331825037707398</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1343,22 +1343,22 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>47.029702970297024</v>
+        <v>47.577092511013213</v>
       </c>
       <c r="C4">
-        <v>39.10891089108911</v>
+        <v>39.647577092511014</v>
       </c>
       <c r="D4">
-        <v>9.4059405940594054</v>
+        <v>8.8105726872246706</v>
       </c>
       <c r="E4">
-        <v>1.9801980198019802</v>
+        <v>1.7621145374449341</v>
       </c>
       <c r="F4">
-        <v>1.9801980198019802</v>
+        <v>1.7621145374449341</v>
       </c>
       <c r="G4">
-        <v>0.49504950495049505</v>
+        <v>0.44052863436123352</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -1366,22 +1366,45 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>71.090047393364927</v>
+        <v>73.2</v>
       </c>
       <c r="C5">
-        <v>18.009478672985782</v>
+        <v>16.400000000000002</v>
       </c>
       <c r="D5">
-        <v>6.6350710900473935</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>1.8957345971563981</v>
+        <v>1.6</v>
       </c>
       <c r="F5">
-        <v>0.94786729857819907</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
-        <v>1.4218009478672986</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6">
+        <v>65.454545454545453</v>
+      </c>
+      <c r="C6">
+        <v>22.727272727272727</v>
+      </c>
+      <c r="D6">
+        <v>8.1818181818181817</v>
+      </c>
+      <c r="E6">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="F6">
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G6">
+        <v>1.8181818181818181</v>
       </c>
     </row>
   </sheetData>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13638772-7001-4FFC-9955-9F2D77803054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF28214-C89B-462E-9D8F-1C4646C3D095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10752" yWindow="612" windowWidth="11808" windowHeight="11748" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>0-17</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t>In-Hospital Deaths</t>
+  </si>
+  <si>
+    <t>Out-of-Hospital Deaths</t>
   </si>
 </sst>
 </file>
@@ -1098,15 +1101,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFDC5731-22C8-4F52-8715-52D4BEADA27C}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection sqref="A1:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="4" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -1249,6 +1252,35 @@
         <v>2</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <f>B5-B6</f>
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <f>C5-C6</f>
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <f>D5-D6</f>
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <f>E5-E6</f>
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <f>F5-F6</f>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f>G5-G6</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1256,15 +1288,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1407,6 +1439,29 @@
         <v>1.8181818181818181</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>79.285714285714278</v>
+      </c>
+      <c r="C7">
+        <v>11.428571428571429</v>
+      </c>
+      <c r="D7">
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="E7">
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="F7">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="G7">
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF28214-C89B-462E-9D8F-1C4646C3D095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDA523-0FA7-40B8-B769-6A1DEDD2D30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10752" yWindow="612" windowWidth="11808" windowHeight="11748" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="deaths_demo" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>0-17</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Out-of-Hospital Deaths</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
 </sst>
 </file>
@@ -1257,27 +1260,27 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f>B5-B6</f>
+        <f t="shared" ref="B7:G7" si="0">B5-B6</f>
         <v>111</v>
       </c>
       <c r="C7">
-        <f>C5-C6</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="D7">
-        <f>D5-D6</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="E7">
-        <f>E5-E6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F7">
-        <f>F5-F6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7">
-        <f>G5-G6</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1288,15 +1291,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1462,6 +1465,29 @@
         <v>2.1428571428571428</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>76.8</v>
+      </c>
+      <c r="C8">
+        <v>16.2</v>
+      </c>
+      <c r="D8">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E8">
+        <v>3.7</v>
+      </c>
+      <c r="F8">
+        <v>3.2</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACDA523-0FA7-40B8-B769-6A1DEDD2D30D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FD30C-7812-4C8D-8277-16215A3B3401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1470,7 +1470,7 @@
         <v>23</v>
       </c>
       <c r="B8">
-        <v>76.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="C8">
         <v>16.2</v>
@@ -1482,7 +1482,7 @@
         <v>3.7</v>
       </c>
       <c r="F8">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="G8">
         <v>0</v>

--- a/deaths_demo.xlsx
+++ b/deaths_demo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mvisc\Desktop\coronadata-local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12FD30C-7812-4C8D-8277-16215A3B3401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5855B-8CFC-4835-A000-2ACD816FFCEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -587,8 +587,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -982,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1002,19 +1003,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1480</v>
+        <v>1933</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -1022,16 +1023,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>725</v>
+        <v>836</v>
       </c>
       <c r="C4">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="D4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
         <v>1.7</v>
@@ -1042,16 +1043,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>412</v>
+        <v>453</v>
       </c>
       <c r="C5">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="D5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>9.5</v>
@@ -1062,19 +1063,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="C6">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="D6">
         <v>55</v>
       </c>
       <c r="E6">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F6">
-        <v>20.8</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1082,19 +1083,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>412</v>
+        <v>436</v>
       </c>
       <c r="C7">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="D7">
         <v>17</v>
       </c>
       <c r="E7">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F7">
-        <v>29.6</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1145,22 +1146,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>1639</v>
+        <v>1961</v>
       </c>
       <c r="C2">
-        <v>1195</v>
+        <v>1397</v>
       </c>
       <c r="D2">
-        <v>339</v>
+        <v>429</v>
       </c>
       <c r="E2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="F2">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="G2">
-        <v>141</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -1168,22 +1169,22 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="C3">
-        <v>228</v>
+        <v>259</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -1191,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>4</v>
@@ -1214,19 +1215,19 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -1237,22 +1238,22 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1260,16 +1261,16 @@
         <v>22</v>
       </c>
       <c r="B7">
-        <f t="shared" ref="B7:G7" si="0">B5-B6</f>
-        <v>111</v>
+        <f>B5-B6</f>
+        <v>109</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7:G7" si="0">C5-C6</f>
         <v>16</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
@@ -1281,7 +1282,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1291,10 +1292,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D9B96EA-DF45-4B2F-A0CF-2F3FF64D07AF}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1304,7 +1305,7 @@
     <col min="4" max="4" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1327,145 +1328,145 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>46.882151029748279</v>
+        <v>46.846631629240328</v>
       </c>
       <c r="C2">
-        <v>34.181922196796336</v>
+        <v>33.373148590539898</v>
       </c>
       <c r="D2">
-        <v>9.6967963386727689</v>
+        <v>10.248447204968944</v>
       </c>
       <c r="E2">
-        <v>2.1453089244851258</v>
+        <v>2.508361204013378</v>
       </c>
       <c r="F2">
-        <v>3.0606407322654459</v>
+        <v>2.7711419015766841</v>
       </c>
       <c r="G2">
-        <v>4.0331807780320368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4.2522694696607743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3">
-        <v>51.734539969834096</v>
+        <v>51.207115628970776</v>
       </c>
       <c r="C3">
-        <v>34.389140271493211</v>
+        <v>32.909783989834821</v>
       </c>
       <c r="D3">
-        <v>9.0497737556561084</v>
+        <v>10.165184243964422</v>
       </c>
       <c r="E3">
-        <v>1.206636500754148</v>
+        <v>1.7789072426937738</v>
       </c>
       <c r="F3">
-        <v>3.0165912518853695</v>
+        <v>3.1766200762388821</v>
       </c>
       <c r="G3">
-        <v>0.60331825037707398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.76238881829733163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
       <c r="B4">
-        <v>47.577092511013213</v>
+        <v>45.991561181434598</v>
       </c>
       <c r="C4">
-        <v>39.647577092511014</v>
+        <v>40.084388185654007</v>
       </c>
       <c r="D4">
-        <v>8.8105726872246706</v>
+        <v>10.126582278481013</v>
       </c>
       <c r="E4">
-        <v>1.7621145374449341</v>
+        <v>1.6877637130801686</v>
       </c>
       <c r="F4">
-        <v>1.7621145374449341</v>
+        <v>1.6877637130801686</v>
       </c>
       <c r="G4">
-        <v>0.44052863436123352</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>0.42194092827004215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>73.2</v>
+        <v>73.800738007380076</v>
       </c>
       <c r="C5">
-        <v>16.400000000000002</v>
+        <v>15.498154981549817</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>6.2730627306273057</v>
       </c>
       <c r="E5">
-        <v>1.6</v>
+        <v>1.4760147601476015</v>
       </c>
       <c r="F5">
-        <v>0.8</v>
+        <v>1.107011070110701</v>
       </c>
       <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.8450184501845017</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
       <c r="B6">
-        <v>65.454545454545453</v>
+        <v>66.911764705882348</v>
       </c>
       <c r="C6">
-        <v>22.727272727272727</v>
+        <v>19.117647058823529</v>
       </c>
       <c r="D6">
-        <v>8.1818181818181817</v>
+        <v>9.5588235294117645</v>
       </c>
       <c r="E6">
-        <v>0.90909090909090906</v>
+        <v>0.73529411764705876</v>
       </c>
       <c r="F6">
-        <v>0.90909090909090906</v>
+        <v>1.4705882352941175</v>
       </c>
       <c r="G6">
-        <v>1.8181818181818181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2.2058823529411766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7">
-        <v>79.285714285714278</v>
+        <v>80.740740740740748</v>
       </c>
       <c r="C7">
-        <v>11.428571428571429</v>
+        <v>11.851851851851853</v>
       </c>
       <c r="D7">
-        <v>4.2857142857142856</v>
+        <v>2.9629629629629632</v>
       </c>
       <c r="E7">
-        <v>2.1428571428571428</v>
+        <v>2.2222222222222223</v>
       </c>
       <c r="F7">
-        <v>0.7142857142857143</v>
+        <v>0.74074074074074081</v>
       </c>
       <c r="G7">
-        <v>2.1428571428571428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1.4814814814814816</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1487,6 +1488,24 @@
       <c r="G8">
         <v>0</v>
       </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
